--- a/predictions_table_J.xlsx
+++ b/predictions_table_J.xlsx
@@ -488,13 +488,13 @@
         <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>272.7598478414483</v>
+        <v>183.2361813371409</v>
       </c>
       <c r="F2" t="n">
-        <v>473.6138875830073</v>
+        <v>313.7947375910834</v>
       </c>
       <c r="G2" t="n">
-        <v>78.09277544337306</v>
+        <v>54.0045705768533</v>
       </c>
     </row>
     <row r="3">
@@ -511,13 +511,13 @@
         <v>430</v>
       </c>
       <c r="E3" t="n">
-        <v>507.8467623988855</v>
+        <v>335.8793167931266</v>
       </c>
       <c r="F3" t="n">
-        <v>484.1249883398936</v>
+        <v>320.5800862330057</v>
       </c>
       <c r="G3" t="n">
-        <v>186.8373564409507</v>
+        <v>126.6768739238514</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +534,13 @@
         <v>860</v>
       </c>
       <c r="E4" t="n">
-        <v>23.31968310296556</v>
+        <v>16.44863197252785</v>
       </c>
       <c r="F4" t="n">
-        <v>28.70323667682319</v>
+        <v>20.19879266289113</v>
       </c>
       <c r="G4" t="n">
-        <v>69.03496307680678</v>
+        <v>47.86224606426877</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +557,13 @@
         <v>130</v>
       </c>
       <c r="E5" t="n">
-        <v>175.1462309928784</v>
+        <v>118.9337752736839</v>
       </c>
       <c r="F5" t="n">
-        <v>215.5509627607906</v>
+        <v>145.6415486199604</v>
       </c>
       <c r="G5" t="n">
-        <v>76.78355468373998</v>
+        <v>53.11795864680763</v>
       </c>
     </row>
     <row r="6">
@@ -580,13 +580,13 @@
         <v>120</v>
       </c>
       <c r="E6" t="n">
-        <v>161.9522672266264</v>
+        <v>110.1789423276426</v>
       </c>
       <c r="F6" t="n">
-        <v>187.9711216119887</v>
+        <v>127.4270823901594</v>
       </c>
       <c r="G6" t="n">
-        <v>83.21039822829817</v>
+        <v>57.46659182716856</v>
       </c>
     </row>
     <row r="7">
@@ -603,13 +603,13 @@
         <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>68.56720446657914</v>
+        <v>47.54449873915918</v>
       </c>
       <c r="F7" t="n">
-        <v>64.87503884050436</v>
+        <v>45.03440418258244</v>
       </c>
       <c r="G7" t="n">
-        <v>81.42005055342473</v>
+        <v>56.25608976746548</v>
       </c>
     </row>
     <row r="8">
@@ -626,13 +626,13 @@
         <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>39.21984906473487</v>
+        <v>27.4752433120352</v>
       </c>
       <c r="F8" t="n">
-        <v>59.40949474923448</v>
+        <v>41.31178696165833</v>
       </c>
       <c r="G8" t="n">
-        <v>71.94235278827389</v>
+        <v>49.8359856341359</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         <v>785</v>
       </c>
       <c r="E9" t="n">
-        <v>21.78096249060913</v>
+        <v>15.37291600458341</v>
       </c>
       <c r="F9" t="n">
-        <v>30.64711453399327</v>
+        <v>21.54828912982395</v>
       </c>
       <c r="G9" t="n">
-        <v>72.37631559376355</v>
+        <v>50.13040953318785</v>
       </c>
     </row>
     <row r="10">
@@ -672,13 +672,13 @@
         <v>250</v>
       </c>
       <c r="E10" t="n">
-        <v>40.65580612673971</v>
+        <v>28.46454570087472</v>
       </c>
       <c r="F10" t="n">
-        <v>34.28594430398766</v>
+        <v>24.06868254978902</v>
       </c>
       <c r="G10" t="n">
-        <v>70.9919207634013</v>
+        <v>49.19099881803777</v>
       </c>
     </row>
     <row r="11">
@@ -695,13 +695,13 @@
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>106.313803991714</v>
+        <v>73.03104607356251</v>
       </c>
       <c r="F11" t="n">
-        <v>70.0731375725029</v>
+        <v>48.56727566693039</v>
       </c>
       <c r="G11" t="n">
-        <v>76.38494208317631</v>
+        <v>52.84793781266103</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>75.41529401215774</v>
+        <v>52.19094267799297</v>
       </c>
       <c r="F12" t="n">
-        <v>49.09898985637864</v>
+        <v>34.26419685548121</v>
       </c>
       <c r="G12" t="n">
-        <v>69.66320309831541</v>
+        <v>48.28891982422109</v>
       </c>
     </row>
     <row r="13">
@@ -741,13 +741,13 @@
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>23.92387012404886</v>
+        <v>16.87051938276246</v>
       </c>
       <c r="F13" t="n">
-        <v>25.08293285632173</v>
+        <v>17.67911034019004</v>
       </c>
       <c r="G13" t="n">
-        <v>74.27943347462596</v>
+        <v>51.42104796603591</v>
       </c>
     </row>
     <row r="14">
@@ -764,13 +764,13 @@
         <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>39.61155650390182</v>
+        <v>27.74520134428871</v>
       </c>
       <c r="F14" t="n">
-        <v>33.29525160217063</v>
+        <v>23.38320281605438</v>
       </c>
       <c r="G14" t="n">
-        <v>63.34237151443911</v>
+        <v>43.99134888968698</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>77.59150159073793</v>
+        <v>53.66515119540317</v>
       </c>
       <c r="F15" t="n">
-        <v>48.11911557338924</v>
+        <v>33.59253361387402</v>
       </c>
       <c r="G15" t="n">
-        <v>73.84255171252762</v>
+        <v>51.12484471906689</v>
       </c>
     </row>
     <row r="16">
@@ -810,13 +810,13 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>72.21424591419866</v>
+        <v>50.02045807504275</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3480973163441</v>
+        <v>71.03849343074327</v>
       </c>
       <c r="G16" t="n">
-        <v>81.40672773430408</v>
+        <v>56.24707926463179</v>
       </c>
     </row>
     <row r="17">
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>57.0455178779056</v>
+        <v>39.69895091212389</v>
       </c>
       <c r="F17" t="n">
-        <v>60.07890916806907</v>
+        <v>41.76819260076672</v>
       </c>
       <c r="G17" t="n">
-        <v>79.1081555328317</v>
+        <v>54.69192443798757</v>
       </c>
     </row>
     <row r="18">
@@ -856,13 +856,13 @@
         <v>180</v>
       </c>
       <c r="E18" t="n">
-        <v>23.75773299934758</v>
+        <v>16.75453756800681</v>
       </c>
       <c r="F18" t="n">
-        <v>25.52125892106099</v>
+        <v>17.98464766983452</v>
       </c>
       <c r="G18" t="n">
-        <v>72.31630339866854</v>
+        <v>50.08969675502241</v>
       </c>
     </row>
     <row r="19">
@@ -879,13 +879,13 @@
         <v>65</v>
       </c>
       <c r="E19" t="n">
-        <v>66.76546772217293</v>
+        <v>46.32005181380049</v>
       </c>
       <c r="F19" t="n">
-        <v>67.91715140895998</v>
+        <v>47.10282533373638</v>
       </c>
       <c r="G19" t="n">
-        <v>80.85334727340832</v>
+        <v>55.87278231726133</v>
       </c>
     </row>
     <row r="20">
@@ -902,13 +902,13 @@
         <v>670</v>
       </c>
       <c r="E20" t="n">
-        <v>33.36202016833118</v>
+        <v>23.4294175861576</v>
       </c>
       <c r="F20" t="n">
-        <v>21.364477226822</v>
+        <v>15.08142686753082</v>
       </c>
       <c r="G20" t="n">
-        <v>43.19874016711261</v>
+        <v>30.21430757769775</v>
       </c>
     </row>
     <row r="21">
@@ -925,13 +925,13 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>110.5905899636049</v>
+        <v>75.90191370874938</v>
       </c>
       <c r="F21" t="n">
-        <v>213.5145110478016</v>
+        <v>144.2988196570241</v>
       </c>
       <c r="G21" t="n">
-        <v>71.04531490098141</v>
+        <v>49.22723934934729</v>
       </c>
     </row>
     <row r="22">
@@ -948,13 +948,13 @@
         <v>112</v>
       </c>
       <c r="E22" t="n">
-        <v>349.6084292636211</v>
+        <v>233.4156401106612</v>
       </c>
       <c r="F22" t="n">
-        <v>406.8868156124888</v>
+        <v>270.6229097904283</v>
       </c>
       <c r="G22" t="n">
-        <v>576.7767416583259</v>
+        <v>380.2314020756551</v>
       </c>
     </row>
     <row r="23">
@@ -971,13 +971,13 @@
         <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>54.23168409553796</v>
+        <v>37.77692572704617</v>
       </c>
       <c r="F23" t="n">
-        <v>56.69314762780083</v>
+        <v>39.45839732261453</v>
       </c>
       <c r="G23" t="n">
-        <v>85.55592689372935</v>
+        <v>59.05143949738207</v>
       </c>
     </row>
     <row r="24">
@@ -994,13 +994,13 @@
         <v>270</v>
       </c>
       <c r="E24" t="n">
-        <v>265.3059325291441</v>
+        <v>178.3506640529009</v>
       </c>
       <c r="F24" t="n">
-        <v>372.9433297171731</v>
+        <v>248.5917162146515</v>
       </c>
       <c r="G24" t="n">
-        <v>222.4105730561775</v>
+        <v>150.161976702238</v>
       </c>
     </row>
     <row r="25">
@@ -1017,13 +1017,13 @@
         <v>190</v>
       </c>
       <c r="E25" t="n">
-        <v>64.95667452747129</v>
+        <v>45.08994314237499</v>
       </c>
       <c r="F25" t="n">
-        <v>98.08933424041147</v>
+        <v>67.50160626254917</v>
       </c>
       <c r="G25" t="n">
-        <v>68.60581385128326</v>
+        <v>47.57072813718135</v>
       </c>
     </row>
     <row r="26">
@@ -1040,13 +1040,13 @@
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>97.57796253196247</v>
+        <v>67.15741219472244</v>
       </c>
       <c r="F26" t="n">
-        <v>92.38673525955312</v>
+        <v>63.66058410941606</v>
       </c>
       <c r="G26" t="n">
-        <v>68.05783471263442</v>
+        <v>47.19842079505207</v>
       </c>
     </row>
     <row r="27">
@@ -1063,13 +1063,13 @@
         <v>390</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5307290961175</v>
+        <v>99.2560334694283</v>
       </c>
       <c r="F27" t="n">
-        <v>93.86471359915473</v>
+        <v>64.65666653059587</v>
       </c>
       <c r="G27" t="n">
-        <v>84.60767496629964</v>
+        <v>58.41085469148133</v>
       </c>
     </row>
     <row r="28">
@@ -1086,13 +1086,13 @@
         <v>370</v>
       </c>
       <c r="E28" t="n">
-        <v>126.4143898425367</v>
+        <v>86.49946658742091</v>
       </c>
       <c r="F28" t="n">
-        <v>176.4099824698363</v>
+        <v>119.7714046389086</v>
       </c>
       <c r="G28" t="n">
-        <v>60.98680424076061</v>
+        <v>42.38698294402844</v>
       </c>
     </row>
     <row r="29">
@@ -1109,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>339.8541628155152</v>
+        <v>227.0640386198557</v>
       </c>
       <c r="F29" t="n">
-        <v>440.4975704590344</v>
+        <v>292.3903637532285</v>
       </c>
       <c r="G29" t="n">
-        <v>78.44181232817606</v>
+        <v>54.24087461740012</v>
       </c>
     </row>
     <row r="30">
@@ -1132,13 +1132,13 @@
         <v>540</v>
       </c>
       <c r="E30" t="n">
-        <v>18.86991629076734</v>
+        <v>13.33243056349016</v>
       </c>
       <c r="F30" t="n">
-        <v>8.866788054518322</v>
+        <v>6.249993302390338</v>
       </c>
       <c r="G30" t="n">
-        <v>54.99348763029744</v>
+        <v>38.29753561058126</v>
       </c>
     </row>
     <row r="31">
@@ -1155,13 +1155,13 @@
         <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>27.64368664678823</v>
+        <v>19.46224769093733</v>
       </c>
       <c r="F31" t="n">
-        <v>30.32018336780698</v>
+        <v>21.3214810744726</v>
       </c>
       <c r="G31" t="n">
-        <v>66.99796595445962</v>
+        <v>46.47810378293164</v>
       </c>
     </row>
     <row r="32">
@@ -1178,13 +1178,13 @@
         <v>336</v>
       </c>
       <c r="E32" t="n">
-        <v>50.47681751753443</v>
+        <v>35.20805478723936</v>
       </c>
       <c r="F32" t="n">
-        <v>28.91247438842927</v>
+        <v>20.34416110136126</v>
       </c>
       <c r="G32" t="n">
-        <v>73.57805081013107</v>
+        <v>50.94549247316971</v>
       </c>
     </row>
     <row r="33">
@@ -1201,13 +1201,13 @@
         <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>41.37482767587326</v>
+        <v>28.95957481564718</v>
       </c>
       <c r="F33" t="n">
-        <v>26.54652871716031</v>
+        <v>18.69879959116388</v>
       </c>
       <c r="G33" t="n">
-        <v>74.00422783260701</v>
+        <v>51.23446548510709</v>
       </c>
     </row>
     <row r="34">
@@ -1224,13 +1224,13 @@
         <v>25.5</v>
       </c>
       <c r="E34" t="n">
-        <v>111.4283105193231</v>
+        <v>76.46390413073614</v>
       </c>
       <c r="F34" t="n">
-        <v>112.7278361420861</v>
+        <v>77.33548080450285</v>
       </c>
       <c r="G34" t="n">
-        <v>60.32759243351659</v>
+        <v>41.93771067202056</v>
       </c>
     </row>
     <row r="35">
@@ -1247,13 +1247,13 @@
         <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>51.39979628344722</v>
+        <v>35.83995143034115</v>
       </c>
       <c r="F35" t="n">
-        <v>38.61331045102848</v>
+        <v>27.0570899024746</v>
       </c>
       <c r="G35" t="n">
-        <v>62.82583932558334</v>
+        <v>43.63967614256029</v>
       </c>
     </row>
     <row r="36">
@@ -1270,13 +1270,13 @@
         <v>14.5</v>
       </c>
       <c r="E36" t="n">
-        <v>25.54858419460718</v>
+        <v>18.00369044196233</v>
       </c>
       <c r="F36" t="n">
-        <v>31.02664618911152</v>
+        <v>21.81151105657003</v>
       </c>
       <c r="G36" t="n">
-        <v>71.22025347469572</v>
+        <v>49.34597151139212</v>
       </c>
     </row>
     <row r="37">
@@ -1293,13 +1293,13 @@
         <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>60.23056970209099</v>
+        <v>41.87157607473709</v>
       </c>
       <c r="F37" t="n">
-        <v>95.99070392565424</v>
+        <v>66.08875835613078</v>
       </c>
       <c r="G37" t="n">
-        <v>73.90435873333838</v>
+        <v>51.16675228316939</v>
       </c>
     </row>
     <row r="38">
@@ -1316,13 +1316,13 @@
         <v>915</v>
       </c>
       <c r="E38" t="n">
-        <v>118.8572239891335</v>
+        <v>81.44289052798634</v>
       </c>
       <c r="F38" t="n">
-        <v>106.7321824690602</v>
+        <v>73.31202156348522</v>
       </c>
       <c r="G38" t="n">
-        <v>79.0352313086137</v>
+        <v>54.64256664890733</v>
       </c>
     </row>
     <row r="39">
@@ -1339,13 +1339,13 @@
         <v>260</v>
       </c>
       <c r="E39" t="n">
-        <v>49.53016865716257</v>
+        <v>34.55964163339654</v>
       </c>
       <c r="F39" t="n">
-        <v>37.75828157013355</v>
+        <v>26.46733676948799</v>
       </c>
       <c r="G39" t="n">
-        <v>66.51043061011546</v>
+        <v>46.14666145436276</v>
       </c>
     </row>
     <row r="40">
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="E40" t="n">
-        <v>28.14973822772733</v>
+        <v>19.81411711878068</v>
       </c>
       <c r="F40" t="n">
-        <v>45.58108117466005</v>
+        <v>31.85115009720406</v>
       </c>
       <c r="G40" t="n">
-        <v>71.07072173278802</v>
+        <v>49.24448363514975</v>
       </c>
     </row>
     <row r="41">
@@ -1385,13 +1385,13 @@
         <v>27</v>
       </c>
       <c r="E41" t="n">
-        <v>41.9008750983684</v>
+        <v>29.32160499898287</v>
       </c>
       <c r="F41" t="n">
-        <v>43.17115504007566</v>
+        <v>30.19534114970444</v>
       </c>
       <c r="G41" t="n">
-        <v>52.45560292425283</v>
+        <v>36.56242521688633</v>
       </c>
     </row>
     <row r="42">
@@ -1408,13 +1408,13 @@
         <v>18.5</v>
       </c>
       <c r="E42" t="n">
-        <v>42.17727972277614</v>
+        <v>29.51178182242688</v>
       </c>
       <c r="F42" t="n">
-        <v>28.84919782713569</v>
+        <v>20.30020239199764</v>
       </c>
       <c r="G42" t="n">
-        <v>49.36574498395643</v>
+        <v>34.44698602038835</v>
       </c>
     </row>
     <row r="43">
@@ -1431,13 +1431,13 @@
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>88.37473868115335</v>
+        <v>60.95458016935697</v>
       </c>
       <c r="F43" t="n">
-        <v>86.75146441061312</v>
+        <v>59.85881217009786</v>
       </c>
       <c r="G43" t="n">
-        <v>73.0830136201198</v>
+        <v>50.60977339662487</v>
       </c>
     </row>
     <row r="44">
@@ -1454,13 +1454,13 @@
         <v>92</v>
       </c>
       <c r="E44" t="n">
-        <v>157.5246380437271</v>
+        <v>107.2368657789588</v>
       </c>
       <c r="F44" t="n">
-        <v>110.2224065393326</v>
+        <v>75.6548801646713</v>
       </c>
       <c r="G44" t="n">
-        <v>85.2758784909164</v>
+        <v>58.86227420070718</v>
       </c>
     </row>
     <row r="45">
@@ -1477,13 +1477,13 @@
         <v>150</v>
       </c>
       <c r="E45" t="n">
-        <v>59.56601979551585</v>
+        <v>41.41851740202288</v>
       </c>
       <c r="F45" t="n">
-        <v>38.32473568807596</v>
+        <v>26.85808447601802</v>
       </c>
       <c r="G45" t="n">
-        <v>71.85949636855017</v>
+        <v>49.7797660890304</v>
       </c>
     </row>
     <row r="46">
@@ -1500,13 +1500,13 @@
         <v>15.6</v>
       </c>
       <c r="E46" t="n">
-        <v>86.54104563199498</v>
+        <v>59.71673296084938</v>
       </c>
       <c r="F46" t="n">
-        <v>190.4212151085368</v>
+        <v>129.0478952637281</v>
       </c>
       <c r="G46" t="n">
-        <v>82.23468037042647</v>
+        <v>56.80696812716944</v>
       </c>
     </row>
     <row r="47">
@@ -1523,13 +1523,13 @@
         <v>10.2</v>
       </c>
       <c r="E47" t="n">
-        <v>37.15410014858453</v>
+        <v>26.05039775797781</v>
       </c>
       <c r="F47" t="n">
-        <v>51.6696105164846</v>
+        <v>36.02461786061811</v>
       </c>
       <c r="G47" t="n">
-        <v>60.30818039146823</v>
+        <v>41.92447886465357</v>
       </c>
     </row>
     <row r="48">
@@ -1546,13 +1546,13 @@
         <v>230</v>
       </c>
       <c r="E48" t="n">
-        <v>130.5083712377139</v>
+        <v>89.23544985709836</v>
       </c>
       <c r="F48" t="n">
-        <v>182.6261303290905</v>
+        <v>123.8892660247035</v>
       </c>
       <c r="G48" t="n">
-        <v>76.84641619714638</v>
+        <v>53.16053779543167</v>
       </c>
     </row>
     <row r="49">
@@ -1569,13 +1569,13 @@
         <v>990</v>
       </c>
       <c r="E49" t="n">
-        <v>148.8081972120743</v>
+        <v>101.4385421630065</v>
       </c>
       <c r="F49" t="n">
-        <v>164.2017825168689</v>
+        <v>111.6728898723925</v>
       </c>
       <c r="G49" t="n">
-        <v>122.4677433545805</v>
+        <v>83.85974561704138</v>
       </c>
     </row>
     <row r="50">
@@ -1592,13 +1592,13 @@
         <v>126</v>
       </c>
       <c r="E50" t="n">
-        <v>71.56843242713893</v>
+        <v>49.58226064892118</v>
       </c>
       <c r="F50" t="n">
-        <v>71.94771691786148</v>
+        <v>49.83962523264882</v>
       </c>
       <c r="G50" t="n">
-        <v>231.6417398463468</v>
+        <v>156.2394715392582</v>
       </c>
     </row>
     <row r="51">
@@ -1615,13 +1615,13 @@
         <v>10.7</v>
       </c>
       <c r="E51" t="n">
-        <v>63.93216552629769</v>
+        <v>44.39280955777186</v>
       </c>
       <c r="F51" t="n">
-        <v>73.12459556010427</v>
+        <v>50.63797527246447</v>
       </c>
       <c r="G51" t="n">
-        <v>70.3888615335291</v>
+        <v>48.78163124923653</v>
       </c>
     </row>
     <row r="52">
@@ -1638,13 +1638,13 @@
         <v>21</v>
       </c>
       <c r="E52" t="n">
-        <v>69.17503886434437</v>
+        <v>47.95738828397237</v>
       </c>
       <c r="F52" t="n">
-        <v>115.8904427542781</v>
+        <v>79.45551022098984</v>
       </c>
       <c r="G52" t="n">
-        <v>70.13247180643725</v>
+        <v>48.6075615853477</v>
       </c>
     </row>
     <row r="53">
@@ -1661,13 +1661,13 @@
         <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>35.10423185473319</v>
+        <v>24.63448751628528</v>
       </c>
       <c r="F53" t="n">
-        <v>42.02845539327466</v>
+        <v>29.40938907444396</v>
       </c>
       <c r="G53" t="n">
-        <v>68.11596637222334</v>
+        <v>47.23792023168556</v>
       </c>
     </row>
     <row r="54">
@@ -1684,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="E54" t="n">
-        <v>32.05498533811949</v>
+        <v>22.52429799668923</v>
       </c>
       <c r="F54" t="n">
-        <v>42.29779241647604</v>
+        <v>29.59468902030854</v>
       </c>
       <c r="G54" t="n">
-        <v>68.55524629764838</v>
+        <v>47.53637484419219</v>
       </c>
     </row>
     <row r="55">
@@ -1707,13 +1707,13 @@
         <v>210</v>
       </c>
       <c r="E55" t="n">
-        <v>29.64385728679565</v>
+        <v>20.85208128707966</v>
       </c>
       <c r="F55" t="n">
-        <v>31.72667231877958</v>
+        <v>22.29679444456184</v>
       </c>
       <c r="G55" t="n">
-        <v>15.10585088369654</v>
+        <v>10.68204966501783</v>
       </c>
     </row>
     <row r="56">
@@ -1730,13 +1730,13 @@
         <v>46</v>
       </c>
       <c r="E56" t="n">
-        <v>203.9485283005586</v>
+        <v>137.9869488445754</v>
       </c>
       <c r="F56" t="n">
-        <v>92.13184842900986</v>
+        <v>63.48876135732468</v>
       </c>
       <c r="G56" t="n">
-        <v>71.31958861743207</v>
+        <v>49.41338765465485</v>
       </c>
     </row>
     <row r="57">
@@ -1753,13 +1753,13 @@
         <v>54</v>
       </c>
       <c r="E57" t="n">
-        <v>33.66779149703347</v>
+        <v>23.64103110479838</v>
       </c>
       <c r="F57" t="n">
-        <v>25.52125892106099</v>
+        <v>17.98464766983452</v>
       </c>
       <c r="G57" t="n">
-        <v>71.09377623046487</v>
+        <v>49.26013119073977</v>
       </c>
     </row>
     <row r="58">
@@ -1776,13 +1776,13 @@
         <v>490</v>
       </c>
       <c r="E58" t="n">
-        <v>82.46152973322604</v>
+        <v>56.96034538399802</v>
       </c>
       <c r="F58" t="n">
-        <v>48.72386759011104</v>
+        <v>34.00710748150458</v>
       </c>
       <c r="G58" t="n">
-        <v>91.54874907871086</v>
+        <v>63.09563917426925</v>
       </c>
     </row>
     <row r="59">
@@ -1799,13 +1799,13 @@
         <v>264</v>
       </c>
       <c r="E59" t="n">
-        <v>140.3493268827505</v>
+        <v>95.80302426438146</v>
       </c>
       <c r="F59" t="n">
-        <v>108.0950296066543</v>
+        <v>74.22708584256563</v>
       </c>
       <c r="G59" t="n">
-        <v>70.45541672540286</v>
+        <v>48.82681459802175</v>
       </c>
     </row>
     <row r="60">
@@ -1822,13 +1822,13 @@
         <v>330</v>
       </c>
       <c r="E60" t="n">
-        <v>127.5882101721476</v>
+        <v>87.28415815284701</v>
       </c>
       <c r="F60" t="n">
-        <v>52.03336995064741</v>
+        <v>36.27354276184658</v>
       </c>
       <c r="G60" t="n">
-        <v>84.0637396383264</v>
+        <v>58.04331852571184</v>
       </c>
     </row>
     <row r="61">
@@ -1845,13 +1845,13 @@
         <v>134</v>
       </c>
       <c r="E61" t="n">
-        <v>180.2735123780645</v>
+        <v>122.3312243470331</v>
       </c>
       <c r="F61" t="n">
-        <v>99.08011963688267</v>
+        <v>68.16835067835028</v>
       </c>
       <c r="G61" t="n">
-        <v>116.7202399556171</v>
+        <v>80.01150569381225</v>
       </c>
     </row>
     <row r="62">
@@ -1868,13 +1868,13 @@
         <v>41</v>
       </c>
       <c r="E62" t="n">
-        <v>37.79199208333098</v>
+        <v>26.49059494108007</v>
       </c>
       <c r="F62" t="n">
-        <v>25.84603909096515</v>
+        <v>18.21095105520529</v>
       </c>
       <c r="G62" t="n">
-        <v>72.16582634154175</v>
+        <v>49.98760797708142</v>
       </c>
     </row>
     <row r="63">
@@ -1891,13 +1891,13 @@
         <v>130</v>
       </c>
       <c r="E63" t="n">
-        <v>101.8090662993661</v>
+        <v>70.00388570394114</v>
       </c>
       <c r="F63" t="n">
-        <v>106.5527229214951</v>
+        <v>73.1915032863368</v>
       </c>
       <c r="G63" t="n">
-        <v>75.01951586761243</v>
+        <v>51.92271588735942</v>
       </c>
     </row>
     <row r="64">
@@ -1914,13 +1914,13 @@
         <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>134.5239004511804</v>
+        <v>91.91681651044564</v>
       </c>
       <c r="F64" t="n">
-        <v>205.9758735773628</v>
+        <v>139.3252797038091</v>
       </c>
       <c r="G64" t="n">
-        <v>64.30693333951442</v>
+        <v>44.64785616377687</v>
       </c>
     </row>
     <row r="65">
@@ -1937,13 +1937,13 @@
         <v>280</v>
       </c>
       <c r="E65" t="n">
-        <v>31.59612629655852</v>
+        <v>22.2063162232376</v>
       </c>
       <c r="F65" t="n">
-        <v>27.13391973282044</v>
+        <v>19.10762867746187</v>
       </c>
       <c r="G65" t="n">
-        <v>71.49832256004667</v>
+        <v>49.53468350748696</v>
       </c>
     </row>
     <row r="66">
@@ -1960,13 +1960,13 @@
         <v>70</v>
       </c>
       <c r="E66" t="n">
-        <v>65.57819512516514</v>
+        <v>45.51272094510045</v>
       </c>
       <c r="F66" t="n">
-        <v>91.09549137654655</v>
+        <v>62.79001025521082</v>
       </c>
       <c r="G66" t="n">
-        <v>238.9832115557086</v>
+        <v>161.0682907073519</v>
       </c>
     </row>
     <row r="67">
@@ -1983,13 +1983,13 @@
         <v>160</v>
       </c>
       <c r="E67" t="n">
-        <v>59.47011814422135</v>
+        <v>41.35312537633386</v>
       </c>
       <c r="F67" t="n">
-        <v>37.25411017727765</v>
+        <v>26.11942557127359</v>
       </c>
       <c r="G67" t="n">
-        <v>73.53135517072558</v>
+        <v>50.91382744191672</v>
       </c>
     </row>
     <row r="68">
@@ -2006,13 +2006,13 @@
         <v>660</v>
       </c>
       <c r="E68" t="n">
-        <v>85.73884849609971</v>
+        <v>59.17498946699887</v>
       </c>
       <c r="F68" t="n">
-        <v>44.36221795301368</v>
+        <v>31.01398578071105</v>
       </c>
       <c r="G68" t="n">
-        <v>89.81111976222965</v>
+        <v>61.92374956999755</v>
       </c>
     </row>
     <row r="69">
@@ -2029,13 +2029,13 @@
         <v>160</v>
       </c>
       <c r="E69" t="n">
-        <v>228.3808349121334</v>
+        <v>154.0933412212192</v>
       </c>
       <c r="F69" t="n">
-        <v>354.8235749261972</v>
+        <v>236.809616832765</v>
       </c>
       <c r="G69" t="n">
-        <v>73.80501176328471</v>
+        <v>51.0993907267508</v>
       </c>
     </row>
     <row r="70">
@@ -2052,13 +2052,13 @@
         <v>45</v>
       </c>
       <c r="E70" t="n">
-        <v>72.48834649334589</v>
+        <v>50.20640988308886</v>
       </c>
       <c r="F70" t="n">
-        <v>55.10921240781818</v>
+        <v>38.37660446629007</v>
       </c>
       <c r="G70" t="n">
-        <v>74.36128815605356</v>
+        <v>51.47653989201352</v>
       </c>
     </row>
     <row r="71">
@@ -2075,13 +2075,13 @@
         <v>40</v>
       </c>
       <c r="E71" t="n">
-        <v>65.43704651775597</v>
+        <v>45.41671642842621</v>
       </c>
       <c r="F71" t="n">
-        <v>146.6126743396779</v>
+        <v>99.97665620896511</v>
       </c>
       <c r="G71" t="n">
-        <v>71.89747038644168</v>
+        <v>49.80553234099239</v>
       </c>
     </row>
     <row r="72">
@@ -2098,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="E72" t="n">
-        <v>308.0189102567244</v>
+        <v>206.2999188940019</v>
       </c>
       <c r="F72" t="n">
-        <v>70.69648989772438</v>
+        <v>48.99046635122576</v>
       </c>
       <c r="G72" t="n">
-        <v>75.61704268991055</v>
+        <v>52.327657660413</v>
       </c>
     </row>
     <row r="73">
@@ -2121,13 +2121,13 @@
         <v>21.3</v>
       </c>
       <c r="E73" t="n">
-        <v>377.0716680120556</v>
+        <v>251.2739687529825</v>
       </c>
       <c r="F73" t="n">
-        <v>448.5718466928112</v>
+        <v>297.6128815908434</v>
       </c>
       <c r="G73" t="n">
-        <v>144.654283566751</v>
+        <v>98.67217940772558</v>
       </c>
     </row>
     <row r="74">
@@ -2144,13 +2144,13 @@
         <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>39.49792529102662</v>
+        <v>27.66689578413884</v>
       </c>
       <c r="F74" t="n">
-        <v>53.61424513836518</v>
+        <v>37.35483413706962</v>
       </c>
       <c r="G74" t="n">
-        <v>70.59383293231788</v>
+        <v>48.92077977946496</v>
       </c>
     </row>
     <row r="75">
@@ -2167,13 +2167,13 @@
         <v>2700</v>
       </c>
       <c r="E75" t="n">
-        <v>162.8245559533817</v>
+        <v>110.7583108185939</v>
       </c>
       <c r="F75" t="n">
-        <v>257.8855203122279</v>
+        <v>173.4835129562832</v>
       </c>
       <c r="G75" t="n">
-        <v>83.22815150941759</v>
+        <v>57.47859186558526</v>
       </c>
     </row>
     <row r="76">
@@ -2190,13 +2190,13 @@
         <v>740</v>
       </c>
       <c r="E76" t="n">
-        <v>355.5665128730135</v>
+        <v>237.293007672457</v>
       </c>
       <c r="F76" t="n">
-        <v>306.5009141518414</v>
+        <v>205.3084567401745</v>
       </c>
       <c r="G76" t="n">
-        <v>82.61983315483067</v>
+        <v>57.06737086861719</v>
       </c>
     </row>
     <row r="77">
@@ -2213,13 +2213,13 @@
         <v>1440</v>
       </c>
       <c r="E77" t="n">
-        <v>45.13041946507198</v>
+        <v>31.54168579503501</v>
       </c>
       <c r="F77" t="n">
-        <v>20.00355804849016</v>
+        <v>14.12793269561226</v>
       </c>
       <c r="G77" t="n">
-        <v>101.70848211616</v>
+        <v>69.93625418008872</v>
       </c>
     </row>
     <row r="78">
@@ -2236,13 +2236,13 @@
         <v>390</v>
       </c>
       <c r="E78" t="n">
-        <v>83.47982082498338</v>
+        <v>57.64869641426889</v>
       </c>
       <c r="F78" t="n">
-        <v>54.61448097572681</v>
+        <v>38.03854934049815</v>
       </c>
       <c r="G78" t="n">
-        <v>72.38691262991368</v>
+        <v>50.1375985602152</v>
       </c>
     </row>
     <row r="79">
@@ -2259,13 +2259,13 @@
         <v>180</v>
       </c>
       <c r="E79" t="n">
-        <v>93.2145645560239</v>
+        <v>64.21854998589831</v>
       </c>
       <c r="F79" t="n">
-        <v>83.41453461838258</v>
+        <v>57.60457042940681</v>
       </c>
       <c r="G79" t="n">
-        <v>74.1538915564991</v>
+        <v>51.33593595432167</v>
       </c>
     </row>
     <row r="80">
@@ -2282,13 +2282,13 @@
         <v>11</v>
       </c>
       <c r="E80" t="n">
-        <v>20.01427310647362</v>
+        <v>14.13544618139069</v>
       </c>
       <c r="F80" t="n">
-        <v>21.46379426310087</v>
+        <v>15.15094967189326</v>
       </c>
       <c r="G80" t="n">
-        <v>65.55516075052383</v>
+        <v>45.49705410899028</v>
       </c>
     </row>
     <row r="81">
@@ -2305,13 +2305,13 @@
         <v>23</v>
       </c>
       <c r="E81" t="n">
-        <v>79.43098722105937</v>
+        <v>54.91041450811134</v>
       </c>
       <c r="F81" t="n">
-        <v>53.72885754671598</v>
+        <v>37.4331945889207</v>
       </c>
       <c r="G81" t="n">
-        <v>74.59985346885064</v>
+        <v>51.63826192061016</v>
       </c>
     </row>
     <row r="82">
@@ -2328,13 +2328,13 @@
         <v>17</v>
       </c>
       <c r="E82" t="n">
-        <v>170.4754000185835</v>
+        <v>115.8365052421776</v>
       </c>
       <c r="F82" t="n">
-        <v>102.7096124178464</v>
+        <v>70.60932370607809</v>
       </c>
       <c r="G82" t="n">
-        <v>75.06474035432895</v>
+        <v>51.95336729435118</v>
       </c>
     </row>
     <row r="83">
@@ -2351,13 +2351,13 @@
         <v>80</v>
       </c>
       <c r="E83" t="n">
-        <v>227.4097692343344</v>
+        <v>153.4540891762749</v>
       </c>
       <c r="F83" t="n">
-        <v>419.670990493779</v>
+        <v>278.9077571815715</v>
       </c>
       <c r="G83" t="n">
-        <v>77.88931827725946</v>
+        <v>53.86681382487662</v>
       </c>
     </row>
     <row r="84">
@@ -2374,13 +2374,13 @@
         <v>93</v>
       </c>
       <c r="E84" t="n">
-        <v>43.15208274989078</v>
+        <v>30.1822276241158</v>
       </c>
       <c r="F84" t="n">
-        <v>32.36339168661318</v>
+        <v>22.73795285530561</v>
       </c>
       <c r="G84" t="n">
-        <v>67.9764083280681</v>
+        <v>47.14309152568536</v>
       </c>
     </row>
     <row r="85">
@@ -2397,13 +2397,13 @@
         <v>75</v>
       </c>
       <c r="E85" t="n">
-        <v>37.26344315003785</v>
+        <v>26.12586702867316</v>
       </c>
       <c r="F85" t="n">
-        <v>41.1860423913274</v>
+        <v>28.82962232288929</v>
       </c>
       <c r="G85" t="n">
-        <v>74.45250971607086</v>
+        <v>51.53838004936753</v>
       </c>
     </row>
     <row r="86">
@@ -2420,13 +2420,13 @@
         <v>23.8</v>
       </c>
       <c r="E86" t="n">
-        <v>99.74418430039917</v>
+        <v>68.61513211935568</v>
       </c>
       <c r="F86" t="n">
-        <v>117.9072294293365</v>
+        <v>80.80665356089506</v>
       </c>
       <c r="G86" t="n">
-        <v>78.15532052746264</v>
+        <v>54.04691671052514</v>
       </c>
     </row>
     <row r="87">
@@ -2443,13 +2443,13 @@
         <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>27.14790939583217</v>
+        <v>19.11736283051922</v>
       </c>
       <c r="F87" t="n">
-        <v>21.03994049162266</v>
+        <v>14.8541911628514</v>
       </c>
       <c r="G87" t="n">
-        <v>72.17466767055782</v>
+        <v>49.9936063902173</v>
       </c>
     </row>
     <row r="88">
@@ -2466,13 +2466,13 @@
         <v>20.5</v>
       </c>
       <c r="E88" t="n">
-        <v>77.59193377556491</v>
+        <v>53.6654438582619</v>
       </c>
       <c r="F88" t="n">
-        <v>90.31054668365817</v>
+        <v>62.26063261616544</v>
       </c>
       <c r="G88" t="n">
-        <v>71.06277960695375</v>
+        <v>49.23909312247157</v>
       </c>
     </row>
     <row r="89">
@@ -2489,13 +2489,13 @@
         <v>83.5</v>
       </c>
       <c r="E89" t="n">
-        <v>46.22577218043602</v>
+        <v>32.2937147173851</v>
       </c>
       <c r="F89" t="n">
-        <v>64.0695843978751</v>
+        <v>44.48633388063222</v>
       </c>
       <c r="G89" t="n">
-        <v>72.57597576786415</v>
+        <v>50.26585434289218</v>
       </c>
     </row>
     <row r="90">
@@ -2512,13 +2512,13 @@
         <v>102</v>
       </c>
       <c r="E90" t="n">
-        <v>37.78266155146185</v>
+        <v>26.48415750400065</v>
       </c>
       <c r="F90" t="n">
-        <v>39.74561510026063</v>
+        <v>27.83757637944935</v>
       </c>
       <c r="G90" t="n">
-        <v>69.88634704417274</v>
+        <v>48.44044546808396</v>
       </c>
     </row>
     <row r="91">
@@ -2535,13 +2535,13 @@
         <v>38</v>
       </c>
       <c r="E91" t="n">
-        <v>97.12334818411996</v>
+        <v>66.8513807375062</v>
       </c>
       <c r="F91" t="n">
-        <v>66.14611124813771</v>
+        <v>45.89894405201515</v>
       </c>
       <c r="G91" t="n">
-        <v>71.44839230420384</v>
+        <v>49.50079967722103</v>
       </c>
     </row>
     <row r="92">
@@ -2558,13 +2558,13 @@
         <v>1000</v>
       </c>
       <c r="E92" t="n">
-        <v>83.47517530060421</v>
+        <v>57.64555660260865</v>
       </c>
       <c r="F92" t="n">
-        <v>53.72885754671598</v>
+        <v>37.4331945889207</v>
       </c>
       <c r="G92" t="n">
-        <v>75.19168309115643</v>
+        <v>52.03940159554025</v>
       </c>
     </row>
     <row r="93">
@@ -2581,13 +2581,13 @@
         <v>17.7</v>
       </c>
       <c r="E93" t="n">
-        <v>94.6225008227527</v>
+        <v>65.16721717535864</v>
       </c>
       <c r="F93" t="n">
-        <v>79.03730388252663</v>
+        <v>54.64396945934418</v>
       </c>
       <c r="G93" t="n">
-        <v>79.16727670162315</v>
+        <v>54.73193894101215</v>
       </c>
     </row>
     <row r="94">
@@ -2604,13 +2604,13 @@
         <v>13.6</v>
       </c>
       <c r="E94" t="n">
-        <v>152.5596829125914</v>
+        <v>103.9351578184822</v>
       </c>
       <c r="F94" t="n">
-        <v>144.6543125027646</v>
+        <v>98.67219868530729</v>
       </c>
       <c r="G94" t="n">
-        <v>112.5186297344143</v>
+        <v>77.1951863688641</v>
       </c>
     </row>
     <row r="95">
@@ -2627,13 +2627,13 @@
         <v>97</v>
       </c>
       <c r="E95" t="n">
-        <v>49.82932521520868</v>
+        <v>34.76458524838851</v>
       </c>
       <c r="F95" t="n">
-        <v>49.24979376616746</v>
+        <v>34.36753568172976</v>
       </c>
       <c r="G95" t="n">
-        <v>65.86707094637931</v>
+        <v>45.70918776099606</v>
       </c>
     </row>
     <row r="96">
@@ -2650,13 +2650,13 @@
         <v>11.8</v>
       </c>
       <c r="E96" t="n">
-        <v>40.93727005470429</v>
+        <v>28.65835356911193</v>
       </c>
       <c r="F96" t="n">
-        <v>34.96435114431922</v>
+        <v>24.53779123089864</v>
       </c>
       <c r="G96" t="n">
-        <v>73.4674002233611</v>
+        <v>50.87045775726322</v>
       </c>
     </row>
     <row r="97">
@@ -2673,13 +2673,13 @@
         <v>25</v>
       </c>
       <c r="E97" t="n">
-        <v>136.8854811823443</v>
+        <v>93.49277553728128</v>
       </c>
       <c r="F97" t="n">
-        <v>208.6430694903055</v>
+        <v>141.0854739738776</v>
       </c>
       <c r="G97" t="n">
-        <v>76.95985478141557</v>
+        <v>53.23737294471415</v>
       </c>
     </row>
     <row r="98">
@@ -2696,13 +2696,13 @@
         <v>15.4</v>
       </c>
       <c r="E98" t="n">
-        <v>208.8003919860386</v>
+        <v>141.1892791118324</v>
       </c>
       <c r="F98" t="n">
-        <v>256.5461134583786</v>
+        <v>172.6045874515264</v>
       </c>
       <c r="G98" t="n">
-        <v>70.90302556669778</v>
+        <v>49.13066085783797</v>
       </c>
     </row>
     <row r="99">
@@ -2719,13 +2719,13 @@
         <v>13.5</v>
       </c>
       <c r="E99" t="n">
-        <v>69.01551710862529</v>
+        <v>47.84903758415247</v>
       </c>
       <c r="F99" t="n">
-        <v>41.05441973029583</v>
+        <v>28.7390092773307</v>
       </c>
       <c r="G99" t="n">
-        <v>71.58861766338667</v>
+        <v>49.59595829348303</v>
       </c>
     </row>
     <row r="100">
@@ -2742,13 +2742,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="n">
-        <v>19.16945622499105</v>
+        <v>13.54273846238875</v>
       </c>
       <c r="F100" t="n">
-        <v>11.93205282970325</v>
+        <v>8.434587388581598</v>
       </c>
       <c r="G100" t="n">
-        <v>59.88165274451114</v>
+        <v>41.63371730740555</v>
       </c>
     </row>
     <row r="101">
@@ -2765,13 +2765,13 @@
         <v>39</v>
       </c>
       <c r="E101" t="n">
-        <v>74.19123131173301</v>
+        <v>51.36125109211385</v>
       </c>
       <c r="F101" t="n">
-        <v>54.28975484842418</v>
+        <v>37.81661742437441</v>
       </c>
       <c r="G101" t="n">
-        <v>81.4159199220634</v>
+        <v>56.25329613870186</v>
       </c>
     </row>
     <row r="102">
@@ -2788,13 +2788,13 @@
         <v>575</v>
       </c>
       <c r="E102" t="n">
-        <v>64.36677051783974</v>
+        <v>44.68857450725015</v>
       </c>
       <c r="F102" t="n">
-        <v>38.21346247507475</v>
+        <v>26.78133852236404</v>
       </c>
       <c r="G102" t="n">
-        <v>67.4457127356724</v>
+        <v>46.78244120312526</v>
       </c>
     </row>
     <row r="103">
@@ -2811,13 +2811,13 @@
         <v>850</v>
       </c>
       <c r="E103" t="n">
-        <v>360.5331112396313</v>
+        <v>240.5238320310407</v>
       </c>
       <c r="F103" t="n">
-        <v>795.0859299272925</v>
+        <v>519.8447014773196</v>
       </c>
       <c r="G103" t="n">
-        <v>142.558826800082</v>
+        <v>97.27588964377516</v>
       </c>
     </row>
   </sheetData>
